--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -65,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -81,12 +81,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -468,21 +462,22 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="12" min="4" max="4"/>
-    <col width="9.005000000000001" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
-    <col width="9.005000000000001" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="9.005000000000001" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="9.005000000000001" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -516,7 +511,8 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
@@ -538,7 +534,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -551,7 +547,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="3" t="n">
         <v>6574</v>
       </c>
     </row>
@@ -571,7 +568,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="9" t="n">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -584,7 +581,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="3" t="n">
         <v>5412</v>
       </c>
     </row>
@@ -604,7 +602,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="9" t="n">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -617,7 +615,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="3" t="n">
         <v>3259</v>
       </c>
     </row>
@@ -637,7 +636,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="9" t="n">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -650,7 +649,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="3" t="n">
         <v>1546</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="9" t="n">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -683,7 +683,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="3" t="n">
         <v>2554</v>
       </c>
     </row>
@@ -703,7 +704,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="9" t="n">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -716,7 +717,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="3" t="n">
         <v>1582</v>
       </c>
     </row>
@@ -736,7 +738,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="9" t="n">
         <v>26</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -749,7 +751,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="3" t="n">
         <v>9536</v>
       </c>
     </row>
@@ -769,7 +772,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="9" t="n">
         <v>27</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -782,7 +785,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="3" t="n">
         <v>3549</v>
       </c>
     </row>
@@ -802,7 +806,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="9" t="n">
         <v>28</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -815,7 +819,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="3" t="n">
         <v>6458</v>
       </c>
     </row>
@@ -835,7 +840,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="9" t="n">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -848,7 +853,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="3" t="n">
         <v>6540</v>
       </c>
     </row>
@@ -868,7 +874,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -881,7 +887,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="3" t="n">
         <v>3265</v>
       </c>
     </row>
@@ -901,7 +908,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="9" t="n">
         <v>31</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -914,11 +921,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="3" t="n">
         <v>9654</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
+    <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Marcel</t>
@@ -934,7 +942,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="9" t="n">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -947,11 +955,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="3" t="n">
         <v>2587</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Earlean</t>
@@ -967,7 +976,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="9" t="n">
         <v>33</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -980,7 +989,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="3" t="n">
         <v>2456</v>
       </c>
     </row>
@@ -1000,7 +1010,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="9" t="n">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1013,7 +1023,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="3" t="n">
         <v>8642</v>
       </c>
     </row>
@@ -1033,7 +1044,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="9" t="n">
         <v>35</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1046,7 +1057,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="3" t="n">
         <v>5486</v>
       </c>
     </row>
@@ -1066,7 +1078,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="9" t="n">
         <v>36</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1079,7 +1091,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="3" t="n">
         <v>5555</v>
       </c>
     </row>
@@ -1099,7 +1112,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="9" t="n">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1112,7 +1125,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="3" t="n">
         <v>6525</v>
       </c>
     </row>
@@ -1132,7 +1146,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="9" t="n">
         <v>38</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1145,7 +1159,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="3" t="n">
         <v>3264</v>
       </c>
     </row>
@@ -1165,7 +1180,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="9" t="n">
         <v>39</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1178,7 +1193,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="3" t="n">
         <v>6597</v>
       </c>
     </row>
@@ -1198,7 +1214,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="9" t="n">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1211,7 +1227,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="3" t="n">
         <v>6125</v>
       </c>
     </row>
@@ -1231,7 +1248,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="9" t="n">
         <v>41</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1244,7 +1261,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="3" t="n">
         <v>8563</v>
       </c>
     </row>
@@ -1264,7 +1282,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="9" t="n">
         <v>42</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1277,7 +1295,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="3" t="n">
         <v>6125</v>
       </c>
     </row>
@@ -1297,7 +1316,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="9" t="n">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1310,7 +1329,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="3" t="n">
         <v>3259</v>
       </c>
     </row>
@@ -1330,7 +1350,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="9" t="n">
         <v>44</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1343,7 +1363,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="3" t="n">
         <v>3265</v>
       </c>
     </row>
@@ -1363,7 +1384,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="9" t="n">
         <v>45</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1376,7 +1397,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="3" t="n">
         <v>1562</v>
       </c>
     </row>
@@ -1396,7 +1418,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="9" t="n">
         <v>46</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1409,7 +1431,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="3" t="n">
         <v>3256</v>
       </c>
     </row>
@@ -1429,7 +1452,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="9" t="n">
         <v>47</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1442,11 +1465,12 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="3" t="n">
         <v>7521</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1">
+    <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Roma</t>
@@ -1462,7 +1486,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="9" t="n">
         <v>48</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1475,11 +1499,12 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="3" t="n">
         <v>2654</v>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1">
+    <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Judie</t>
@@ -1495,7 +1520,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="9" t="n">
         <v>49</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1508,11 +1533,12 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="3" t="n">
         <v>7569</v>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1">
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Shanice</t>
@@ -1528,7 +1554,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="9" t="n">
         <v>50</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1541,11 +1567,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="3" t="n">
         <v>2567</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1">
+    <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Philip</t>
@@ -1561,7 +1588,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="9" t="n">
         <v>51</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1574,11 +1601,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="3" t="n">
         <v>2587</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1">
+    <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Dewitt</t>
@@ -1594,7 +1622,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="9" t="n">
         <v>52</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1607,11 +1635,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="3" t="n">
         <v>8514</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1">
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Veta</t>
@@ -1627,7 +1656,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="9" t="n">
         <v>53</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1640,11 +1669,12 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="3" t="n">
         <v>4569</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1">
+    <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Chase</t>
@@ -1660,7 +1690,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="9" t="n">
         <v>54</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1673,11 +1703,12 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="3" t="n">
         <v>2154</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1">
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Belinda</t>
@@ -1693,7 +1724,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="9" t="n">
         <v>55</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1706,7 +1737,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="3" t="n">
         <v>2564</v>
       </c>
     </row>
@@ -1726,7 +1758,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="9" t="n">
         <v>56</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1739,7 +1771,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="3" t="n">
         <v>8765</v>
       </c>
     </row>
@@ -1759,7 +1792,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="9" t="n">
         <v>57</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1772,7 +1805,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="3" t="n">
         <v>2579</v>
       </c>
     </row>
@@ -1792,7 +1826,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="9" t="n">
         <v>58</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1805,7 +1839,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="6" t="n"/>
+      <c r="H40" s="3" t="n">
         <v>3265</v>
       </c>
     </row>
@@ -1825,7 +1860,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="9" t="n">
         <v>59</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -1838,7 +1873,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="6" t="n"/>
+      <c r="H41" s="3" t="n">
         <v>1258</v>
       </c>
     </row>
@@ -1858,7 +1894,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="9" t="n">
         <v>60</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1871,7 +1907,8 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="6" t="n"/>
+      <c r="H42" s="3" t="n">
         <v>3579</v>
       </c>
     </row>
@@ -1891,7 +1928,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="9" t="n">
         <v>61</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1904,7 +1941,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="6" t="n"/>
+      <c r="H43" s="3" t="n">
         <v>3567</v>
       </c>
     </row>
@@ -1924,7 +1962,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="9" t="n">
         <v>62</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1937,7 +1975,8 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="3" t="n">
         <v>6548</v>
       </c>
     </row>
@@ -1957,7 +1996,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="9" t="n">
         <v>63</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1970,11 +2009,12 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="3" t="n">
         <v>3256</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
+    <row r="46" ht="18.75" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Libbie</t>
@@ -1990,7 +2030,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D46" s="9" t="n">
         <v>64</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -2003,11 +2043,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="6" t="n"/>
+      <c r="H46" s="3" t="n">
         <v>5489</v>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
+    <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Many</t>
@@ -2023,7 +2064,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D47" s="11" t="n">
+      <c r="D47" s="9" t="n">
         <v>65</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -2036,11 +2077,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="6" t="n"/>
+      <c r="H47" s="3" t="n">
         <v>5489</v>
       </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
+    <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Teresa</t>
@@ -2056,7 +2098,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D48" s="9" t="n">
         <v>66</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -2069,11 +2111,12 @@
           <t>21/05/2015</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="6" t="n"/>
+      <c r="H48" s="3" t="n">
         <v>3569</v>
       </c>
     </row>
-    <row r="49" ht="19.5" customHeight="1">
+    <row r="49" ht="18.75" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Holly</t>
@@ -2089,7 +2132,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="9" t="n">
         <v>67</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -2102,11 +2145,12 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="6" t="n"/>
+      <c r="H49" s="3" t="n">
         <v>8561</v>
       </c>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
+    <row r="50" ht="18.75" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Etta</t>
@@ -2122,7 +2166,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="9" t="n">
         <v>68</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -2135,11 +2179,12 @@
           <t>15/10/2017</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="6" t="n"/>
+      <c r="H50" s="3" t="n">
         <v>3598</v>
       </c>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
+    <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Nereida</t>
@@ -2155,7 +2200,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="9" t="n">
         <v>69</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -2168,7 +2213,8 @@
           <t>16/08/2016</t>
         </is>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="6" t="n"/>
+      <c r="H51" s="3" t="n">
         <v>2468</v>
       </c>
     </row>
@@ -2185,28 +2231,28 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="8" t="n"/>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -2216,9 +2262,9 @@
       <c r="J1" s="3" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="n"/>
@@ -2228,9 +2274,9 @@
       <c r="J2" s="3" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="8" t="n"/>
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
@@ -2240,9 +2286,9 @@
       <c r="J3" s="3" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -2252,9 +2298,9 @@
       <c r="J4" s="3" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -2264,9 +2310,9 @@
       <c r="J5" s="3" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t>First Name</t>
@@ -2304,9 +2350,9 @@
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2340,9 +2386,9 @@
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Shavonne</t>
@@ -2376,9 +2422,9 @@
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Dulce</t>
@@ -2412,9 +2458,9 @@
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Mara</t>
@@ -2448,9 +2494,9 @@
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Chase</t>
@@ -2484,9 +2530,9 @@
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Earlean</t>
@@ -2520,9 +2566,9 @@
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Nereida</t>
@@ -2556,9 +2602,9 @@
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
       <c r="D14" s="2" t="inlineStr">
         <is>
           <t>Gaston</t>
@@ -2592,9 +2638,9 @@
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
       <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Belinda</t>
@@ -2628,9 +2674,9 @@
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
           <t>Shanice</t>
@@ -2664,9 +2710,9 @@
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Franklyn</t>
@@ -2700,9 +2746,9 @@
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Philip</t>
@@ -2736,9 +2782,9 @@
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Marcel</t>
@@ -2772,9 +2818,9 @@
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Roma</t>
@@ -2808,9 +2854,9 @@
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="8" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
           <t>Sherron</t>
@@ -2844,9 +2890,9 @@
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="8" t="n"/>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Garth</t>
@@ -2880,9 +2926,9 @@
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Kina</t>
@@ -2916,9 +2962,9 @@
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Angel</t>
@@ -2952,9 +2998,9 @@
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Carla</t>
@@ -2988,9 +3034,9 @@
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Demetria</t>
@@ -3024,9 +3070,9 @@
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="8" t="n"/>
-      <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Tommie</t>
@@ -3060,9 +3106,9 @@
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
       <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Jeromy</t>
@@ -3096,9 +3142,9 @@
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="8" t="n"/>
-      <c r="C29" s="8" t="n"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
       <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Kathleen</t>
@@ -3132,9 +3178,9 @@
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
       <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Willodean</t>
@@ -3168,9 +3214,9 @@
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="8" t="n"/>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
       <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Teresa</t>
@@ -3204,9 +3250,9 @@
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="8" t="n"/>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
       <c r="D32" s="2" t="inlineStr">
         <is>
           <t>Shavon</t>
@@ -3240,9 +3286,9 @@
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
       <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Etta</t>
@@ -3276,9 +3322,9 @@
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="8" t="n"/>
-      <c r="B34" s="8" t="n"/>
-      <c r="C34" s="8" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
       <c r="D34" s="2" t="inlineStr">
         <is>
           <t>Veta</t>
@@ -3312,9 +3358,9 @@
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="8" t="n"/>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="8" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="2" t="inlineStr">
         <is>
           <t>Francesca</t>
@@ -3348,9 +3394,9 @@
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="8" t="n"/>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="8" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Fallon</t>
@@ -3384,9 +3430,9 @@
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="8" t="n"/>
-      <c r="B37" s="8" t="n"/>
-      <c r="C37" s="8" t="n"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Many</t>
@@ -3420,9 +3466,9 @@
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="8" t="n"/>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="2" t="inlineStr">
         <is>
           <t>Libbie</t>
@@ -3456,9 +3502,9 @@
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="8" t="n"/>
-      <c r="B39" s="8" t="n"/>
-      <c r="C39" s="8" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
       <c r="D39" s="2" t="inlineStr">
         <is>
           <t>Marvel</t>
@@ -3492,9 +3538,9 @@
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="8" t="n"/>
-      <c r="B40" s="8" t="n"/>
-      <c r="C40" s="8" t="n"/>
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
       <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Rasheeda</t>
@@ -3528,9 +3574,9 @@
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="8" t="n"/>
-      <c r="B41" s="8" t="n"/>
-      <c r="C41" s="8" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
       <c r="D41" s="2" t="inlineStr">
         <is>
           <t>Angelyn</t>
@@ -3564,9 +3610,9 @@
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="8" t="n"/>
-      <c r="B42" s="8" t="n"/>
-      <c r="C42" s="8" t="n"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
       <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Jona</t>
@@ -3600,9 +3646,9 @@
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="8" t="n"/>
-      <c r="B43" s="8" t="n"/>
-      <c r="C43" s="8" t="n"/>
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
       <c r="D43" s="2" t="inlineStr">
         <is>
           <t>Felisa</t>
@@ -3636,9 +3682,9 @@
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
           <t>Weston</t>
@@ -3672,9 +3718,9 @@
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="8" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
       <c r="D45" s="2" t="inlineStr">
         <is>
           <t>Vincenza</t>
@@ -3708,9 +3754,9 @@
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="8" t="n"/>
-      <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n"/>
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
       <c r="D46" s="2" t="inlineStr">
         <is>
           <t>Lester</t>
@@ -3744,9 +3790,9 @@
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="8" t="n"/>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
       <c r="D47" s="2" t="inlineStr">
         <is>
           <t>Lauralee</t>
@@ -3780,21 +3826,21 @@
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="8" t="n"/>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="n"/>
-      <c r="F48" s="9" t="n"/>
-      <c r="G48" s="9" t="n"/>
-      <c r="H48" s="10" t="n"/>
-      <c r="I48" s="9" t="n"/>
-      <c r="J48" s="10" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="8" t="n"/>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
       <c r="D49" s="2" t="inlineStr">
         <is>
           <t>Stasia</t>
@@ -3828,9 +3874,9 @@
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="8" t="n"/>
-      <c r="B50" s="8" t="n"/>
-      <c r="C50" s="8" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
       <c r="D50" s="2" t="inlineStr">
         <is>
           <t>Judie</t>
@@ -3864,9 +3910,9 @@
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="8" t="n"/>
-      <c r="B51" s="8" t="n"/>
-      <c r="C51" s="8" t="n"/>
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
       <c r="D51" s="2" t="inlineStr">
         <is>
           <t>Dewitt</t>
@@ -3900,9 +3946,9 @@
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="8" t="n"/>
-      <c r="B52" s="8" t="n"/>
-      <c r="C52" s="8" t="n"/>
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
       <c r="D52" s="2" t="inlineStr">
         <is>
           <t>Holly</t>
@@ -3936,9 +3982,9 @@
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="8" t="n"/>
-      <c r="B53" s="8" t="n"/>
-      <c r="C53" s="8" t="n"/>
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
       <c r="D53" s="2" t="inlineStr">
         <is>
           <t>Loreta</t>
@@ -3972,9 +4018,9 @@
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="8" t="n"/>
-      <c r="B54" s="8" t="n"/>
-      <c r="C54" s="8" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
       <c r="D54" s="2" t="inlineStr">
         <is>
           <t>Nena</t>
@@ -4008,9 +4054,9 @@
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="8" t="n"/>
-      <c r="B55" s="8" t="n"/>
-      <c r="C55" s="8" t="n"/>
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
       <c r="D55" s="2" t="inlineStr">
         <is>
           <t>Kelsie</t>
@@ -4044,9 +4090,9 @@
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="8" t="n"/>
-      <c r="B56" s="8" t="n"/>
-      <c r="C56" s="8" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
       <c r="D56" s="2" t="inlineStr">
         <is>
           <t>Dorcas</t>
@@ -4080,9 +4126,9 @@
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="8" t="n"/>
-      <c r="B57" s="8" t="n"/>
-      <c r="C57" s="8" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
       <c r="D57" s="2" t="inlineStr">
         <is>
           <t>Sau</t>
@@ -4116,9 +4162,9 @@
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="8" t="n"/>
-      <c r="B58" s="8" t="n"/>
-      <c r="C58" s="8" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
       <c r="D58" s="2" t="inlineStr">
         <is>
           <t>Loreta</t>
